--- a/Scripts/Controller.xlsx
+++ b/Scripts/Controller.xlsx
@@ -379,7 +379,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
